--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -529,17 +529,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H11" displayName="usuario_id" name="usuario_id" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:H11"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J1:K11" displayName="usuario_id" name="usuario_id" id="1" totalsRowShown="0">
+  <autoFilter ref="J1:K11"/>
+  <tableColumns count="2">
     <tableColumn name="usuario_id" id="1"/>
-    <tableColumn name="usuario" id="2"/>
-    <tableColumn name="idade" id="3"/>
-    <tableColumn name="historico_de_reproducoes" id="4"/>
-    <tableColumn name="data_reproducao" id="5"/>
-    <tableColumn name="plano" id="6"/>
-    <tableColumn name="data_assinatura" id="7"/>
-    <tableColumn name="valor_plano" id="8"/>
+    <tableColumn name="seguindo_artistas" id="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="1" showFirstColumn="1"/>
 </table>
@@ -561,11 +555,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J1:K11" displayName="usuario_id" name="usuario_id" id="3" totalsRowShown="0">
-  <autoFilter ref="J1:K11"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H11" displayName="usuario_id" name="usuario_id" id="3" totalsRowShown="0">
+  <autoFilter ref="A1:H11"/>
+  <tableColumns count="8">
     <tableColumn name="usuario_id" id="1"/>
-    <tableColumn name="seguindo_artistas" id="2"/>
+    <tableColumn name="usuario" id="2"/>
+    <tableColumn name="idade" id="3"/>
+    <tableColumn name="historico_de_reproducoes" id="4"/>
+    <tableColumn name="data_reproducao" id="5"/>
+    <tableColumn name="plano" id="6"/>
+    <tableColumn name="data_assinatura" id="7"/>
+    <tableColumn name="valor_plano" id="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="1" showFirstColumn="1"/>
 </table>
@@ -1685,7 +1685,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.5">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="31.5">
       <c r="A19" s="9">
         <v>6</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
       <c r="A20" s="9">
         <v>7</v>
       </c>
